--- a/Canvera.xlsx
+++ b/Canvera.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Wedding Photography" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="389">
   <si>
     <t>LOCATION</t>
   </si>
@@ -220,6 +220,66 @@
     <t>SUDEEP BHATTACHARYA PHOTOGRAPHY</t>
   </si>
   <si>
+    <t>SHUTTER BITE PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>MOTION FRAME STUDIO</t>
+  </si>
+  <si>
+    <t>99 FRAMES PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>TWO TONE STUDIOS</t>
+  </si>
+  <si>
+    <t>CLICKBUGS PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>CAPTURE CREW MOMENTS</t>
+  </si>
+  <si>
+    <t>CREATIVE FRAMES PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>MANAS SARAN PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>LOTUS VISUALS</t>
+  </si>
+  <si>
+    <t>PIXEL FREAKS</t>
+  </si>
+  <si>
+    <t>FOTO ADDA</t>
+  </si>
+  <si>
+    <t>HARISSANTHU PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>THE THIRD EYE PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>JD PHOTOSTREEM</t>
+  </si>
+  <si>
+    <t>PAUL FOTOGRAFY</t>
+  </si>
+  <si>
+    <t>DLS CLICKS</t>
+  </si>
+  <si>
+    <t>VOW STORIES PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>SUMUKHEE SHANKAR PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>PHOTOALCHEMY</t>
+  </si>
+  <si>
+    <t>PR FILM STUDIO</t>
+  </si>
+  <si>
     <t>SK DHANANJAY PHOTOGRAPHY</t>
   </si>
   <si>
@@ -280,66 +340,6 @@
     <t>FRANCIS &amp; CO</t>
   </si>
   <si>
-    <t>SHUTTER BITE PHOTOGRAPHY</t>
-  </si>
-  <si>
-    <t>MOTION FRAME STUDIO</t>
-  </si>
-  <si>
-    <t>99 FRAMES PHOTOGRAPHY</t>
-  </si>
-  <si>
-    <t>TWO TONE STUDIOS</t>
-  </si>
-  <si>
-    <t>CLICKBUGS PHOTOGRAPHY</t>
-  </si>
-  <si>
-    <t>CAPTURE CREW MOMENTS</t>
-  </si>
-  <si>
-    <t>CREATIVE FRAMES PHOTOGRAPHY</t>
-  </si>
-  <si>
-    <t>MANAS SARAN PHOTOGRAPHY</t>
-  </si>
-  <si>
-    <t>LOTUS VISUALS</t>
-  </si>
-  <si>
-    <t>PIXEL FREAKS</t>
-  </si>
-  <si>
-    <t>FOTO ADDA</t>
-  </si>
-  <si>
-    <t>HARISSANTHU PHOTOGRAPHY</t>
-  </si>
-  <si>
-    <t>THE THIRD EYE PHOTOGRAPHY</t>
-  </si>
-  <si>
-    <t>JD PHOTOSTREEM</t>
-  </si>
-  <si>
-    <t>PAUL FOTOGRAFY</t>
-  </si>
-  <si>
-    <t>DLS CLICKS</t>
-  </si>
-  <si>
-    <t>VOW STORIES PHOTOGRAPHY</t>
-  </si>
-  <si>
-    <t>SUMUKHEE SHANKAR PHOTOGRAPHY</t>
-  </si>
-  <si>
-    <t>PHOTOALCHEMY</t>
-  </si>
-  <si>
-    <t>PR FILM STUDIO</t>
-  </si>
-  <si>
     <t>RAWSHUTTER</t>
   </si>
   <si>
@@ -634,6 +634,246 @@
     <t>MASTER VIDEO'S</t>
   </si>
   <si>
+    <t>PICTURE CRAFT STUDIOS</t>
+  </si>
+  <si>
+    <t>K S STUDIO</t>
+  </si>
+  <si>
+    <t>BLESS PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>GURU PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>WEDRING</t>
+  </si>
+  <si>
+    <t>YATISH RICHIE PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>DESETTY S K PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>SAMEER PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>WED PIX PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>SHASHI PHOTO &amp; VIDEO</t>
+  </si>
+  <si>
+    <t>SELVAPRAKASH PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>PREM SUNDAR PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>CHAYACHITRA STUDIO</t>
+  </si>
+  <si>
+    <t>CAMERALAYA.COM</t>
+  </si>
+  <si>
+    <t>SAN PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>QAHANIWALLAS</t>
+  </si>
+  <si>
+    <t>SHUTTERSPEED</t>
+  </si>
+  <si>
+    <t>REMEMBER IT STUDIOS</t>
+  </si>
+  <si>
+    <t>SANTUSHTI PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>SATHYA PHOTOGRAPH</t>
+  </si>
+  <si>
+    <t>BEAUTY DIGITAL STUDIO</t>
+  </si>
+  <si>
+    <t>PHOTOCAFE</t>
+  </si>
+  <si>
+    <t>SB PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>SUBU PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>CHEEZZ FACTORY</t>
+  </si>
+  <si>
+    <t>SAJITHS' CLICK - PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>TERTONPHOTO</t>
+  </si>
+  <si>
+    <t>CRESCENTA STUDIO</t>
+  </si>
+  <si>
+    <t>PUNITH PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>SNAAPSHOT</t>
+  </si>
+  <si>
+    <t>GOEL STUDIO</t>
+  </si>
+  <si>
+    <t>SPRUHAA PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>NITISH MAHARATHI PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>SATISH GODIKATTI PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>JULIAN'S HALO</t>
+  </si>
+  <si>
+    <t>JUST CLICK STUDIO</t>
+  </si>
+  <si>
+    <t>HARISH V</t>
+  </si>
+  <si>
+    <t>DEFINITIONS PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>ARB PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>NIX CLIX PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>JAGATH VENKAT FILMS AND PHOTOS</t>
+  </si>
+  <si>
+    <t>RUHAN PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>NIKSKLICK</t>
+  </si>
+  <si>
+    <t>BLURRED PIXELS PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>LIGHT CAMERA ACTION</t>
+  </si>
+  <si>
+    <t>HARSHITH RAMESH PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>CHENTHIL MOHAN</t>
+  </si>
+  <si>
+    <t>SHUTTER TOWN PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>VIJAY PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>ELIENAI</t>
+  </si>
+  <si>
+    <t>RAGHU VIDEO VISION</t>
+  </si>
+  <si>
+    <t>PHOOTPRINTS PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>PRIYA BANIK PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>PRAMODACLICKS.IN</t>
+  </si>
+  <si>
+    <t>LUCKY MALHOTRA PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>VAIJAYANTI VARMA PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>THE LIVING LENS</t>
+  </si>
+  <si>
+    <t>RAGHUVEER PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>NANDI SOLUTIONS</t>
+  </si>
+  <si>
+    <t>VINOD NANAIAH PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>FREAKITIVE PHOTOGRAPHER</t>
+  </si>
+  <si>
+    <t>THE SHUTTERKINGS</t>
+  </si>
+  <si>
+    <t>LIGHT TREE EVENTS</t>
+  </si>
+  <si>
+    <t>PAPARAZO CREATION</t>
+  </si>
+  <si>
+    <t>APRIL PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>MONA PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>SHIVAM PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>S D CREATIONS</t>
+  </si>
+  <si>
+    <t>VIVID FILMS</t>
+  </si>
+  <si>
+    <t>13 VOYAGE STUDIOS</t>
+  </si>
+  <si>
+    <t>18PX.PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>1PLUS1 STUDIO</t>
+  </si>
+  <si>
+    <t>20POINT7</t>
+  </si>
+  <si>
+    <t>38CLICKS</t>
+  </si>
+  <si>
+    <t>3COLORS</t>
+  </si>
+  <si>
+    <t>3LOK PHOTOGRAPHY</t>
+  </si>
+  <si>
+    <t>3NOTCLICKS</t>
+  </si>
+  <si>
+    <t>4D PHOTO WORKS</t>
+  </si>
+  <si>
+    <t>50 FRAMES PRODUCTIONS</t>
+  </si>
+  <si>
+    <t>A SHOT</t>
+  </si>
+  <si>
     <t>BENGALURU</t>
   </si>
   <si>
@@ -724,6 +964,15 @@
     <t>85,000+</t>
   </si>
   <si>
+    <t>18,000+</t>
+  </si>
+  <si>
+    <t>7,000+</t>
+  </si>
+  <si>
+    <t>34,500+</t>
+  </si>
+  <si>
     <t>Wedding , Babies &amp; Kids , Special Occasion</t>
   </si>
   <si>
@@ -799,24 +1048,24 @@
     <t>Wedding , Babies &amp; Kids , Fashion &amp; Portfolio , Special Occasion</t>
   </si>
   <si>
+    <t>Wedding , Travel , Nature</t>
+  </si>
+  <si>
+    <t>Wedding , Babies &amp; Kids , Fashion &amp; Portfolio , Commercial , Special Occasion , Travel</t>
+  </si>
+  <si>
+    <t>Wedding , Babies &amp; Kids , Commercial</t>
+  </si>
+  <si>
+    <t>Wedding , Babies &amp; Kids , Fashion &amp; Portfolio , Commercial , Corporate Events</t>
+  </si>
+  <si>
     <t>Wedding , Fashion &amp; Portfolio</t>
   </si>
   <si>
     <t>Wedding , Babies &amp; Kids , Fashion &amp; Portfolio , Special Occasion , Corporate Events , Travel , Nature</t>
   </si>
   <si>
-    <t>Wedding , Babies &amp; Kids , Commercial</t>
-  </si>
-  <si>
-    <t>Wedding , Travel , Nature</t>
-  </si>
-  <si>
-    <t>Wedding , Babies &amp; Kids , Fashion &amp; Portfolio , Commercial , Special Occasion , Travel</t>
-  </si>
-  <si>
-    <t>Wedding , Babies &amp; Kids , Fashion &amp; Portfolio , Commercial , Corporate Events</t>
-  </si>
-  <si>
     <t>Wedding , Fashion &amp; Portfolio , Corporate Events</t>
   </si>
   <si>
@@ -845,6 +1094,30 @@
   </si>
   <si>
     <t>Wedding , Babies &amp; Kids , Fashion &amp; Portfolio , Commercial , Special Occasion , Corporate Events</t>
+  </si>
+  <si>
+    <t>Wedding , Commercial</t>
+  </si>
+  <si>
+    <t>Wedding , Babies &amp; Kids , Corporate Events</t>
+  </si>
+  <si>
+    <t>Wedding , Fashion &amp; Portfolio , Commercial , Travel , Nature</t>
+  </si>
+  <si>
+    <t>Wedding , Babies &amp; Kids , Fashion &amp; Portfolio , Nature</t>
+  </si>
+  <si>
+    <t>Wedding , Fashion &amp; Portfolio , Commercial , Special Occasion , Corporate Events</t>
+  </si>
+  <si>
+    <t>Wedding , Babies &amp; Kids , Commercial , Corporate Events , Travel</t>
+  </si>
+  <si>
+    <t>Wedding , Commercial , Special Occasion</t>
+  </si>
+  <si>
+    <t>Wedding , Babies &amp; Kids , Fashion &amp; Portfolio , Commercial , Corporate Events , Nature</t>
   </si>
   <si>
     <t>1 Rating</t>
@@ -1265,7 +1538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1296,19 +1569,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="D2" t="s">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1316,19 +1589,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="D3" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>278</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1336,13 +1609,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="D4" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1350,19 +1623,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="D5" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F5" t="s">
-        <v>279</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1370,19 +1643,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C6" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c r="D6" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1390,19 +1663,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="D7" t="s">
-        <v>238</v>
+        <v>321</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F7" t="s">
-        <v>280</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1410,10 +1683,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="D8" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1421,19 +1694,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C9" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="D9" t="s">
-        <v>239</v>
+        <v>322</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>281</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1441,19 +1714,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C10" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="D10" t="s">
-        <v>238</v>
+        <v>321</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F10" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1461,19 +1734,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C11" t="s">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="D11" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F11" t="s">
-        <v>282</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1481,13 +1754,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C12" t="s">
-        <v>215</v>
+        <v>295</v>
       </c>
       <c r="D12" t="s">
-        <v>240</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1495,13 +1768,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C13" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1509,13 +1782,13 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C14" t="s">
-        <v>217</v>
+        <v>297</v>
       </c>
       <c r="D14" t="s">
-        <v>241</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1523,19 +1796,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C15" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="D15" t="s">
-        <v>241</v>
+        <v>324</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F15" t="s">
-        <v>283</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1543,13 +1816,13 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="D16" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1557,13 +1830,13 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="D17" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1571,13 +1844,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C18" t="s">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="D18" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1585,19 +1858,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C19" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="D19" t="s">
-        <v>242</v>
+        <v>325</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F19" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1605,10 +1878,10 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="D20" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1616,13 +1889,13 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="D21" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1630,19 +1903,19 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C22" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="D22" t="s">
-        <v>243</v>
+        <v>326</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F22" t="s">
-        <v>280</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1650,19 +1923,19 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C23" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="D23" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
       <c r="E23">
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>283</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1670,10 +1943,10 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="D24" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1681,16 +1954,16 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="D25" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
       <c r="E25">
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1698,13 +1971,13 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C26" t="s">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c r="D26" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1712,13 +1985,13 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C27" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="D27" t="s">
-        <v>244</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,13 +1999,13 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C28" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="D28" t="s">
-        <v>245</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1740,10 +2013,10 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="D29" t="s">
-        <v>246</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1751,19 +2024,19 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C30" t="s">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="D30" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
       <c r="E30">
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>283</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1771,19 +2044,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C31" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="D31" t="s">
-        <v>247</v>
+        <v>330</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F31" t="s">
-        <v>284</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1791,19 +2064,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C32" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="D32" t="s">
-        <v>248</v>
+        <v>331</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F32" t="s">
-        <v>282</v>
+        <v>373</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1811,13 +2084,13 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C33" t="s">
-        <v>222</v>
+        <v>302</v>
       </c>
       <c r="D33" t="s">
-        <v>249</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1825,13 +2098,13 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C34" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="D34" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1839,19 +2112,19 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C35" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="D35" t="s">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="E35">
         <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1859,19 +2132,19 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C36" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="D36" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
       <c r="E36">
         <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>282</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1879,19 +2152,19 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C37" t="s">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="D37" t="s">
-        <v>251</v>
+        <v>334</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F37" t="s">
-        <v>286</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1899,19 +2172,19 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C38" t="s">
-        <v>225</v>
+        <v>305</v>
       </c>
       <c r="D38" t="s">
-        <v>252</v>
+        <v>335</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F38" t="s">
-        <v>287</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1919,13 +2192,13 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C39" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="D39" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1933,19 +2206,19 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C40" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="D40" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
       <c r="E40">
         <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1953,13 +2226,13 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C41" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="D41" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1967,13 +2240,13 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C42" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="D42" t="s">
-        <v>248</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1981,10 +2254,10 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="D43" t="s">
-        <v>254</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1992,19 +2265,19 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C44" t="s">
-        <v>217</v>
+        <v>297</v>
       </c>
       <c r="D44" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E44">
         <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2012,13 +2285,13 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C45" t="s">
-        <v>215</v>
+        <v>295</v>
       </c>
       <c r="D45" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2026,13 +2299,13 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C46" t="s">
-        <v>226</v>
+        <v>306</v>
       </c>
       <c r="D46" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2040,19 +2313,19 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C47" t="s">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="D47" t="s">
-        <v>256</v>
+        <v>339</v>
       </c>
       <c r="E47">
         <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2060,13 +2333,13 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C48" t="s">
-        <v>227</v>
+        <v>307</v>
       </c>
       <c r="D48" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2074,19 +2347,19 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C49" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="D49" t="s">
-        <v>257</v>
+        <v>340</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F49" t="s">
-        <v>288</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2094,13 +2367,13 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C50" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="D50" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2108,13 +2381,13 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C51" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="D51" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2122,13 +2395,13 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C52" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="D52" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2136,19 +2409,19 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C53" t="s">
-        <v>217</v>
+        <v>297</v>
       </c>
       <c r="D53" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F53" t="s">
-        <v>287</v>
+        <v>378</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2156,13 +2429,13 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C54" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c r="D54" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2170,13 +2443,13 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C55" t="s">
-        <v>217</v>
+        <v>297</v>
       </c>
       <c r="D55" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2184,19 +2457,19 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C56" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="D56" t="s">
-        <v>258</v>
+        <v>341</v>
       </c>
       <c r="E56">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F56" t="s">
-        <v>289</v>
+        <v>380</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2204,10 +2477,10 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="D57" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2215,19 +2488,19 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C58" t="s">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="D58" t="s">
-        <v>254</v>
+        <v>337</v>
       </c>
       <c r="E58">
         <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>287</v>
+        <v>378</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2235,13 +2508,13 @@
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C59" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="D59" t="s">
-        <v>259</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2249,19 +2522,19 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C60" t="s">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="D60" t="s">
-        <v>260</v>
+        <v>343</v>
       </c>
       <c r="E60">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F60" t="s">
-        <v>287</v>
+        <v>378</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2269,13 +2542,13 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C61" t="s">
-        <v>222</v>
+        <v>302</v>
       </c>
       <c r="D61" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2283,13 +2556,13 @@
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C62" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="D62" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2297,10 +2570,10 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="D63" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2308,13 +2581,13 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C64" t="s">
-        <v>213</v>
+        <v>304</v>
       </c>
       <c r="D64" t="s">
-        <v>261</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2322,13 +2595,10 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>206</v>
-      </c>
-      <c r="C65" t="s">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c r="D65" t="s">
-        <v>247</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2336,19 +2606,10 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>207</v>
-      </c>
-      <c r="C66" t="s">
-        <v>213</v>
+        <v>287</v>
       </c>
       <c r="D66" t="s">
-        <v>237</v>
-      </c>
-      <c r="E66">
-        <v>5</v>
-      </c>
-      <c r="F66" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2356,16 +2617,13 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>207</v>
+        <v>287</v>
+      </c>
+      <c r="C67" t="s">
+        <v>296</v>
       </c>
       <c r="D67" t="s">
-        <v>253</v>
-      </c>
-      <c r="E67">
-        <v>5</v>
-      </c>
-      <c r="F67" t="s">
-        <v>277</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2373,13 +2631,13 @@
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="C68" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="D68" t="s">
-        <v>237</v>
+        <v>332</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2387,13 +2645,13 @@
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>206</v>
+        <v>287</v>
       </c>
       <c r="C69" t="s">
-        <v>215</v>
+        <v>293</v>
       </c>
       <c r="D69" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2401,13 +2659,19 @@
         <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>206</v>
+        <v>287</v>
       </c>
       <c r="C70" t="s">
-        <v>214</v>
+        <v>288</v>
       </c>
       <c r="D70" t="s">
-        <v>237</v>
+        <v>344</v>
+      </c>
+      <c r="E70">
+        <v>4.5</v>
+      </c>
+      <c r="F70" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2415,19 +2679,16 @@
         <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>207</v>
-      </c>
-      <c r="C71" t="s">
-        <v>213</v>
+        <v>287</v>
       </c>
       <c r="D71" t="s">
-        <v>249</v>
+        <v>320</v>
       </c>
       <c r="E71">
         <v>5</v>
       </c>
       <c r="F71" t="s">
-        <v>285</v>
+        <v>368</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2435,13 +2696,16 @@
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>207</v>
-      </c>
-      <c r="C72" t="s">
-        <v>217</v>
+        <v>287</v>
       </c>
       <c r="D72" t="s">
-        <v>237</v>
+        <v>336</v>
+      </c>
+      <c r="E72">
+        <v>4.5</v>
+      </c>
+      <c r="F72" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2449,19 +2713,10 @@
         <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>207</v>
-      </c>
-      <c r="C73" t="s">
-        <v>221</v>
+        <v>287</v>
       </c>
       <c r="D73" t="s">
-        <v>255</v>
-      </c>
-      <c r="E73">
-        <v>5</v>
-      </c>
-      <c r="F73" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2469,19 +2724,16 @@
         <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>206</v>
-      </c>
-      <c r="C74" t="s">
-        <v>222</v>
+        <v>287</v>
       </c>
       <c r="D74" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="E74">
         <v>5</v>
       </c>
       <c r="F74" t="s">
-        <v>278</v>
+        <v>368</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2489,13 +2741,13 @@
         <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C75" t="s">
-        <v>209</v>
+        <v>292</v>
       </c>
       <c r="D75" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2503,13 +2755,13 @@
         <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="C76" t="s">
-        <v>228</v>
+        <v>299</v>
       </c>
       <c r="D76" t="s">
-        <v>249</v>
+        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2517,13 +2769,13 @@
         <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="C77" t="s">
-        <v>222</v>
+        <v>288</v>
       </c>
       <c r="D77" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2531,19 +2783,13 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C78" t="s">
-        <v>209</v>
+        <v>301</v>
       </c>
       <c r="D78" t="s">
-        <v>236</v>
-      </c>
-      <c r="E78">
-        <v>5</v>
-      </c>
-      <c r="F78" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2551,13 +2797,19 @@
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C79" t="s">
-        <v>229</v>
+        <v>294</v>
       </c>
       <c r="D79" t="s">
-        <v>237</v>
+        <v>345</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
+      <c r="F79" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2565,10 +2817,13 @@
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>207</v>
+        <v>287</v>
+      </c>
+      <c r="C80" t="s">
+        <v>301</v>
       </c>
       <c r="D80" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2576,10 +2831,13 @@
         <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>207</v>
+        <v>286</v>
+      </c>
+      <c r="C81" t="s">
+        <v>292</v>
       </c>
       <c r="D81" t="s">
-        <v>253</v>
+        <v>346</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2587,19 +2845,16 @@
         <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>207</v>
-      </c>
-      <c r="C82" t="s">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="D82" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
       <c r="E82">
         <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>285</v>
+        <v>368</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2607,10 +2862,13 @@
         <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>207</v>
+        <v>287</v>
+      </c>
+      <c r="C83" t="s">
+        <v>289</v>
       </c>
       <c r="D83" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2618,13 +2876,13 @@
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C84" t="s">
-        <v>224</v>
+        <v>293</v>
       </c>
       <c r="D84" t="s">
-        <v>237</v>
+        <v>348</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2632,10 +2890,13 @@
         <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>206</v>
+        <v>286</v>
+      </c>
+      <c r="C85" t="s">
+        <v>301</v>
       </c>
       <c r="D85" t="s">
-        <v>237</v>
+        <v>330</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2643,10 +2904,19 @@
         <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>207</v>
+        <v>287</v>
+      </c>
+      <c r="C86" t="s">
+        <v>293</v>
       </c>
       <c r="D86" t="s">
-        <v>249</v>
+        <v>320</v>
+      </c>
+      <c r="E86">
+        <v>4.5</v>
+      </c>
+      <c r="F86" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2654,13 +2924,16 @@
         <v>91</v>
       </c>
       <c r="B87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C87" t="s">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="D87" t="s">
-        <v>249</v>
+        <v>336</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2668,13 +2941,13 @@
         <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>206</v>
+        <v>287</v>
       </c>
       <c r="C88" t="s">
-        <v>221</v>
+        <v>293</v>
       </c>
       <c r="D88" t="s">
-        <v>249</v>
+        <v>320</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2682,13 +2955,13 @@
         <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="C89" t="s">
-        <v>213</v>
+        <v>295</v>
       </c>
       <c r="D89" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2696,19 +2969,13 @@
         <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="C90" t="s">
-        <v>208</v>
+        <v>294</v>
       </c>
       <c r="D90" t="s">
-        <v>264</v>
-      </c>
-      <c r="E90">
-        <v>5</v>
-      </c>
-      <c r="F90" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2716,16 +2983,19 @@
         <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>207</v>
+        <v>287</v>
+      </c>
+      <c r="C91" t="s">
+        <v>293</v>
       </c>
       <c r="D91" t="s">
-        <v>237</v>
+        <v>332</v>
       </c>
       <c r="E91">
         <v>5</v>
       </c>
       <c r="F91" t="s">
-        <v>277</v>
+        <v>376</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2733,16 +3003,13 @@
         <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>207</v>
+        <v>287</v>
+      </c>
+      <c r="C92" t="s">
+        <v>297</v>
       </c>
       <c r="D92" t="s">
-        <v>253</v>
-      </c>
-      <c r="E92">
-        <v>5</v>
-      </c>
-      <c r="F92" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2750,10 +3017,19 @@
         <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>207</v>
+        <v>287</v>
+      </c>
+      <c r="C93" t="s">
+        <v>304</v>
       </c>
       <c r="D93" t="s">
-        <v>237</v>
+        <v>338</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+      <c r="F93" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2761,16 +3037,19 @@
         <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>207</v>
+        <v>286</v>
+      </c>
+      <c r="C94" t="s">
+        <v>302</v>
       </c>
       <c r="D94" t="s">
-        <v>237</v>
+        <v>349</v>
       </c>
       <c r="E94">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F94" t="s">
-        <v>277</v>
+        <v>369</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2778,13 +3057,13 @@
         <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C95" t="s">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="D95" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2792,13 +3071,13 @@
         <v>100</v>
       </c>
       <c r="B96" t="s">
-        <v>206</v>
+        <v>287</v>
       </c>
       <c r="C96" t="s">
-        <v>219</v>
+        <v>308</v>
       </c>
       <c r="D96" t="s">
-        <v>237</v>
+        <v>332</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2806,13 +3085,13 @@
         <v>101</v>
       </c>
       <c r="B97" t="s">
-        <v>206</v>
+        <v>287</v>
       </c>
       <c r="C97" t="s">
-        <v>208</v>
+        <v>302</v>
       </c>
       <c r="D97" t="s">
-        <v>237</v>
+        <v>346</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2820,13 +3099,19 @@
         <v>102</v>
       </c>
       <c r="B98" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C98" t="s">
-        <v>221</v>
+        <v>289</v>
       </c>
       <c r="D98" t="s">
-        <v>257</v>
+        <v>319</v>
+      </c>
+      <c r="E98">
+        <v>4.5</v>
+      </c>
+      <c r="F98" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2834,19 +3119,13 @@
         <v>103</v>
       </c>
       <c r="B99" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C99" t="s">
-        <v>214</v>
+        <v>309</v>
       </c>
       <c r="D99" t="s">
-        <v>265</v>
-      </c>
-      <c r="E99">
-        <v>5</v>
-      </c>
-      <c r="F99" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2854,13 +3133,10 @@
         <v>104</v>
       </c>
       <c r="B100" t="s">
-        <v>207</v>
-      </c>
-      <c r="C100" t="s">
-        <v>221</v>
+        <v>287</v>
       </c>
       <c r="D100" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2868,13 +3144,10 @@
         <v>105</v>
       </c>
       <c r="B101" t="s">
-        <v>206</v>
-      </c>
-      <c r="C101" t="s">
-        <v>212</v>
+        <v>287</v>
       </c>
       <c r="D101" t="s">
-        <v>263</v>
+        <v>336</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2882,16 +3155,19 @@
         <v>106</v>
       </c>
       <c r="B102" t="s">
-        <v>207</v>
+        <v>287</v>
+      </c>
+      <c r="C102" t="s">
+        <v>296</v>
       </c>
       <c r="D102" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
       <c r="E102">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F102" t="s">
-        <v>277</v>
+        <v>376</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2899,13 +3175,10 @@
         <v>107</v>
       </c>
       <c r="B103" t="s">
-        <v>207</v>
-      </c>
-      <c r="C103" t="s">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="D103" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2913,13 +3186,13 @@
         <v>108</v>
       </c>
       <c r="B104" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C104" t="s">
-        <v>222</v>
+        <v>302</v>
       </c>
       <c r="D104" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2927,16 +3200,16 @@
         <v>109</v>
       </c>
       <c r="B105" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="D105" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
       <c r="E105">
         <v>5</v>
       </c>
       <c r="F105" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2944,13 +3217,13 @@
         <v>110</v>
       </c>
       <c r="B106" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C106" t="s">
-        <v>217</v>
+        <v>297</v>
       </c>
       <c r="D106" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2958,13 +3231,13 @@
         <v>111</v>
       </c>
       <c r="B107" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C107" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="D107" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2972,13 +3245,13 @@
         <v>112</v>
       </c>
       <c r="B108" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C108" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="D108" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2986,10 +3259,10 @@
         <v>113</v>
       </c>
       <c r="B109" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="D109" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2997,13 +3270,13 @@
         <v>114</v>
       </c>
       <c r="B110" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C110" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="D110" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3011,13 +3284,13 @@
         <v>115</v>
       </c>
       <c r="B111" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C111" t="s">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="D111" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3025,13 +3298,13 @@
         <v>116</v>
       </c>
       <c r="B112" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C112" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="D112" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3039,19 +3312,19 @@
         <v>117</v>
       </c>
       <c r="B113" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C113" t="s">
-        <v>217</v>
+        <v>297</v>
       </c>
       <c r="D113" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
       <c r="E113">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F113" t="s">
-        <v>283</v>
+        <v>374</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3059,13 +3332,13 @@
         <v>118</v>
       </c>
       <c r="B114" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C114" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="D114" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3073,13 +3346,13 @@
         <v>119</v>
       </c>
       <c r="B115" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C115" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="D115" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3087,13 +3360,13 @@
         <v>120</v>
       </c>
       <c r="B116" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C116" t="s">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="D116" t="s">
-        <v>246</v>
+        <v>329</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3101,13 +3374,13 @@
         <v>121</v>
       </c>
       <c r="B117" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C117" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="D117" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3115,13 +3388,13 @@
         <v>122</v>
       </c>
       <c r="B118" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C118" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="D118" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3129,13 +3402,13 @@
         <v>123</v>
       </c>
       <c r="B119" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C119" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="D119" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3143,10 +3416,10 @@
         <v>124</v>
       </c>
       <c r="B120" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="D120" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3154,10 +3427,10 @@
         <v>125</v>
       </c>
       <c r="B121" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="D121" t="s">
-        <v>249</v>
+        <v>332</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3165,16 +3438,16 @@
         <v>126</v>
       </c>
       <c r="B122" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="D122" t="s">
-        <v>269</v>
+        <v>352</v>
       </c>
       <c r="E122">
         <v>5</v>
       </c>
       <c r="F122" t="s">
-        <v>278</v>
+        <v>369</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3182,19 +3455,19 @@
         <v>127</v>
       </c>
       <c r="B123" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C123" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="D123" t="s">
-        <v>270</v>
+        <v>353</v>
       </c>
       <c r="E123">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F123" t="s">
-        <v>282</v>
+        <v>373</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3202,19 +3475,19 @@
         <v>128</v>
       </c>
       <c r="B124" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C124" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="D124" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
       <c r="E124">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F124" t="s">
-        <v>281</v>
+        <v>372</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3222,19 +3495,19 @@
         <v>129</v>
       </c>
       <c r="B125" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C125" t="s">
-        <v>222</v>
+        <v>302</v>
       </c>
       <c r="D125" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
       <c r="E125">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F125" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3242,13 +3515,13 @@
         <v>130</v>
       </c>
       <c r="B126" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C126" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="D126" t="s">
-        <v>236</v>
+        <v>319</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3256,13 +3529,13 @@
         <v>131</v>
       </c>
       <c r="B127" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C127" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="D127" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3270,13 +3543,13 @@
         <v>132</v>
       </c>
       <c r="B128" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C128" t="s">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="D128" t="s">
-        <v>261</v>
+        <v>348</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3284,19 +3557,19 @@
         <v>133</v>
       </c>
       <c r="B129" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C129" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="D129" t="s">
-        <v>257</v>
+        <v>340</v>
       </c>
       <c r="E129">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F129" t="s">
-        <v>283</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3304,19 +3577,19 @@
         <v>134</v>
       </c>
       <c r="B130" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C130" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="D130" t="s">
-        <v>260</v>
+        <v>343</v>
       </c>
       <c r="E130">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F130" t="s">
-        <v>287</v>
+        <v>378</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3324,13 +3597,13 @@
         <v>135</v>
       </c>
       <c r="B131" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C131" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="D131" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3338,13 +3611,13 @@
         <v>136</v>
       </c>
       <c r="B132" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C132" t="s">
-        <v>222</v>
+        <v>302</v>
       </c>
       <c r="D132" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3352,13 +3625,13 @@
         <v>137</v>
       </c>
       <c r="B133" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C133" t="s">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="D133" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3366,13 +3639,13 @@
         <v>138</v>
       </c>
       <c r="B134" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C134" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="D134" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3380,13 +3653,13 @@
         <v>139</v>
       </c>
       <c r="B135" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C135" t="s">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="D135" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3394,19 +3667,19 @@
         <v>140</v>
       </c>
       <c r="B136" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C136" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="D136" t="s">
-        <v>261</v>
+        <v>348</v>
       </c>
       <c r="E136">
         <v>5</v>
       </c>
       <c r="F136" t="s">
-        <v>283</v>
+        <v>374</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3414,13 +3687,13 @@
         <v>141</v>
       </c>
       <c r="B137" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C137" t="s">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="D137" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3428,13 +3701,13 @@
         <v>142</v>
       </c>
       <c r="B138" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C138" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="D138" t="s">
-        <v>261</v>
+        <v>348</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3442,13 +3715,13 @@
         <v>143</v>
       </c>
       <c r="B139" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C139" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="D139" t="s">
-        <v>269</v>
+        <v>352</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3456,13 +3729,13 @@
         <v>144</v>
       </c>
       <c r="B140" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C140" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="D140" t="s">
-        <v>257</v>
+        <v>340</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3470,10 +3743,10 @@
         <v>145</v>
       </c>
       <c r="B141" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="D141" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3481,10 +3754,10 @@
         <v>146</v>
       </c>
       <c r="B142" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="D142" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3492,19 +3765,19 @@
         <v>147</v>
       </c>
       <c r="B143" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C143" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="D143" t="s">
-        <v>260</v>
+        <v>343</v>
       </c>
       <c r="E143">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F143" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3512,19 +3785,19 @@
         <v>148</v>
       </c>
       <c r="B144" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C144" t="s">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="D144" t="s">
-        <v>271</v>
+        <v>354</v>
       </c>
       <c r="E144">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F144" t="s">
-        <v>292</v>
+        <v>383</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3532,16 +3805,16 @@
         <v>149</v>
       </c>
       <c r="B145" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="D145" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
       <c r="E145">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F145" t="s">
-        <v>293</v>
+        <v>384</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3549,19 +3822,19 @@
         <v>150</v>
       </c>
       <c r="B146" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C146" t="s">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="D146" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
       <c r="E146">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F146" t="s">
-        <v>294</v>
+        <v>385</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3569,13 +3842,13 @@
         <v>151</v>
       </c>
       <c r="B147" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C147" t="s">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="D147" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3583,13 +3856,13 @@
         <v>152</v>
       </c>
       <c r="B148" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C148" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="D148" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3597,10 +3870,10 @@
         <v>153</v>
       </c>
       <c r="B149" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="D149" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3608,13 +3881,13 @@
         <v>154</v>
       </c>
       <c r="B150" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C150" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="D150" t="s">
-        <v>272</v>
+        <v>355</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3622,13 +3895,13 @@
         <v>155</v>
       </c>
       <c r="B151" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C151" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="D151" t="s">
-        <v>273</v>
+        <v>356</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3636,13 +3909,13 @@
         <v>156</v>
       </c>
       <c r="B152" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C152" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="D152" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3650,13 +3923,13 @@
         <v>157</v>
       </c>
       <c r="B153" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C153" t="s">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="D153" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3664,13 +3937,13 @@
         <v>158</v>
       </c>
       <c r="B154" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C154" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="D154" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3678,10 +3951,10 @@
         <v>159</v>
       </c>
       <c r="B155" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="D155" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3689,13 +3962,13 @@
         <v>160</v>
       </c>
       <c r="B156" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C156" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="D156" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3703,16 +3976,16 @@
         <v>161</v>
       </c>
       <c r="B157" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="D157" t="s">
-        <v>261</v>
+        <v>348</v>
       </c>
       <c r="E157">
         <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3720,13 +3993,13 @@
         <v>162</v>
       </c>
       <c r="B158" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C158" t="s">
-        <v>231</v>
+        <v>311</v>
       </c>
       <c r="D158" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3734,13 +4007,13 @@
         <v>163</v>
       </c>
       <c r="B159" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C159" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="D159" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3748,13 +4021,13 @@
         <v>164</v>
       </c>
       <c r="B160" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C160" t="s">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="D160" t="s">
-        <v>274</v>
+        <v>357</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3762,19 +4035,19 @@
         <v>165</v>
       </c>
       <c r="B161" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C161" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="D161" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
       <c r="E161">
         <v>5</v>
       </c>
       <c r="F161" t="s">
-        <v>283</v>
+        <v>374</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3782,13 +4055,13 @@
         <v>166</v>
       </c>
       <c r="B162" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C162" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="D162" t="s">
-        <v>260</v>
+        <v>343</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3796,19 +4069,19 @@
         <v>167</v>
       </c>
       <c r="B163" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C163" t="s">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="D163" t="s">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="E163">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F163" t="s">
-        <v>295</v>
+        <v>386</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3816,19 +4089,19 @@
         <v>168</v>
       </c>
       <c r="B164" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C164" t="s">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="D164" t="s">
-        <v>275</v>
+        <v>358</v>
       </c>
       <c r="E164">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F164" t="s">
-        <v>296</v>
+        <v>387</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3836,19 +4109,19 @@
         <v>169</v>
       </c>
       <c r="B165" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C165" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="D165" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
       <c r="E165">
         <v>5</v>
       </c>
       <c r="F165" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3856,13 +4129,13 @@
         <v>170</v>
       </c>
       <c r="B166" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C166" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="D166" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3870,13 +4143,13 @@
         <v>171</v>
       </c>
       <c r="B167" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C167" t="s">
-        <v>232</v>
+        <v>312</v>
       </c>
       <c r="D167" t="s">
-        <v>261</v>
+        <v>348</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3884,19 +4157,19 @@
         <v>172</v>
       </c>
       <c r="B168" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C168" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="D168" t="s">
-        <v>249</v>
+        <v>332</v>
       </c>
       <c r="E168">
         <v>5</v>
       </c>
       <c r="F168" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3904,13 +4177,13 @@
         <v>173</v>
       </c>
       <c r="B169" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C169" t="s">
-        <v>222</v>
+        <v>302</v>
       </c>
       <c r="D169" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3918,10 +4191,10 @@
         <v>174</v>
       </c>
       <c r="B170" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="D170" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3929,10 +4202,10 @@
         <v>175</v>
       </c>
       <c r="B171" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="D171" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3940,10 +4213,10 @@
         <v>176</v>
       </c>
       <c r="B172" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="D172" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3951,13 +4224,13 @@
         <v>177</v>
       </c>
       <c r="B173" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C173" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c r="D173" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3965,19 +4238,19 @@
         <v>178</v>
       </c>
       <c r="B174" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C174" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="D174" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
       <c r="E174">
         <v>5</v>
       </c>
       <c r="F174" t="s">
-        <v>283</v>
+        <v>374</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3985,13 +4258,13 @@
         <v>179</v>
       </c>
       <c r="B175" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C175" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="D175" t="s">
-        <v>236</v>
+        <v>319</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3999,13 +4272,13 @@
         <v>180</v>
       </c>
       <c r="B176" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C176" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="D176" t="s">
-        <v>261</v>
+        <v>348</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4013,19 +4286,19 @@
         <v>181</v>
       </c>
       <c r="B177" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C177" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="D177" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="E177">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F177" t="s">
-        <v>294</v>
+        <v>385</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4033,13 +4306,13 @@
         <v>182</v>
       </c>
       <c r="B178" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C178" t="s">
-        <v>225</v>
+        <v>305</v>
       </c>
       <c r="D178" t="s">
-        <v>249</v>
+        <v>332</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4047,13 +4320,13 @@
         <v>183</v>
       </c>
       <c r="B179" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C179" t="s">
-        <v>225</v>
+        <v>305</v>
       </c>
       <c r="D179" t="s">
-        <v>246</v>
+        <v>329</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4061,19 +4334,19 @@
         <v>184</v>
       </c>
       <c r="B180" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C180" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="D180" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
       <c r="E180">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F180" t="s">
-        <v>287</v>
+        <v>378</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4081,10 +4354,10 @@
         <v>185</v>
       </c>
       <c r="B181" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="D181" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4092,10 +4365,10 @@
         <v>186</v>
       </c>
       <c r="B182" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="D182" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4103,13 +4376,13 @@
         <v>187</v>
       </c>
       <c r="B183" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C183" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="D183" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4117,13 +4390,13 @@
         <v>188</v>
       </c>
       <c r="B184" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C184" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="D184" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4131,19 +4404,19 @@
         <v>189</v>
       </c>
       <c r="B185" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C185" t="s">
-        <v>222</v>
+        <v>302</v>
       </c>
       <c r="D185" t="s">
-        <v>252</v>
+        <v>335</v>
       </c>
       <c r="E185">
         <v>5</v>
       </c>
       <c r="F185" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4151,19 +4424,19 @@
         <v>190</v>
       </c>
       <c r="B186" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C186" t="s">
-        <v>233</v>
+        <v>313</v>
       </c>
       <c r="D186" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E186">
         <v>5</v>
       </c>
       <c r="F186" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4171,13 +4444,13 @@
         <v>191</v>
       </c>
       <c r="B187" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C187" t="s">
-        <v>231</v>
+        <v>311</v>
       </c>
       <c r="D187" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4185,13 +4458,13 @@
         <v>192</v>
       </c>
       <c r="B188" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C188" t="s">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="D188" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4199,19 +4472,19 @@
         <v>193</v>
       </c>
       <c r="B189" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C189" t="s">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="D189" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
       <c r="E189">
         <v>3</v>
       </c>
       <c r="F189" t="s">
-        <v>283</v>
+        <v>374</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4219,10 +4492,10 @@
         <v>194</v>
       </c>
       <c r="B190" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="D190" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4230,10 +4503,10 @@
         <v>195</v>
       </c>
       <c r="B191" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="D191" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4241,13 +4514,13 @@
         <v>196</v>
       </c>
       <c r="B192" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C192" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="D192" t="s">
-        <v>261</v>
+        <v>348</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4255,13 +4528,13 @@
         <v>197</v>
       </c>
       <c r="B193" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C193" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="D193" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4269,19 +4542,19 @@
         <v>198</v>
       </c>
       <c r="B194" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C194" t="s">
-        <v>215</v>
+        <v>295</v>
       </c>
       <c r="D194" t="s">
-        <v>252</v>
+        <v>335</v>
       </c>
       <c r="E194">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F194" t="s">
-        <v>297</v>
+        <v>388</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4289,10 +4562,10 @@
         <v>199</v>
       </c>
       <c r="B195" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="D195" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4300,13 +4573,13 @@
         <v>200</v>
       </c>
       <c r="B196" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C196" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="D196" t="s">
-        <v>236</v>
+        <v>319</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4314,13 +4587,13 @@
         <v>201</v>
       </c>
       <c r="B197" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C197" t="s">
-        <v>234</v>
+        <v>314</v>
       </c>
       <c r="D197" t="s">
-        <v>249</v>
+        <v>332</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4328,19 +4601,19 @@
         <v>202</v>
       </c>
       <c r="B198" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C198" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="D198" t="s">
-        <v>276</v>
+        <v>359</v>
       </c>
       <c r="E198">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F198" t="s">
-        <v>287</v>
+        <v>378</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4348,13 +4621,13 @@
         <v>203</v>
       </c>
       <c r="B199" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="C199" t="s">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="D199" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4362,13 +4635,13 @@
         <v>204</v>
       </c>
       <c r="B200" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="C200" t="s">
-        <v>235</v>
+        <v>315</v>
       </c>
       <c r="D200" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4376,13 +4649,1160 @@
         <v>205</v>
       </c>
       <c r="B201" t="s">
+        <v>287</v>
+      </c>
+      <c r="C201" t="s">
+        <v>292</v>
+      </c>
+      <c r="D201" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B202" t="s">
+        <v>286</v>
+      </c>
+      <c r="C202" t="s">
+        <v>288</v>
+      </c>
+      <c r="D202" t="s">
+        <v>360</v>
+      </c>
+      <c r="E202">
+        <v>5</v>
+      </c>
+      <c r="F202" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C201" t="s">
+      <c r="B203" t="s">
+        <v>287</v>
+      </c>
+      <c r="C203" t="s">
+        <v>288</v>
+      </c>
+      <c r="D203" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B204" t="s">
+        <v>287</v>
+      </c>
+      <c r="C204" t="s">
+        <v>288</v>
+      </c>
+      <c r="D204" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B205" t="s">
+        <v>286</v>
+      </c>
+      <c r="C205" t="s">
+        <v>294</v>
+      </c>
+      <c r="D205" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B206" t="s">
+        <v>286</v>
+      </c>
+      <c r="C206" t="s">
+        <v>310</v>
+      </c>
+      <c r="D206" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B207" t="s">
+        <v>286</v>
+      </c>
+      <c r="C207" t="s">
+        <v>288</v>
+      </c>
+      <c r="D207" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D201" t="s">
+      <c r="B208" t="s">
+        <v>287</v>
+      </c>
+      <c r="D208" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B209" t="s">
+        <v>287</v>
+      </c>
+      <c r="C209" t="s">
+        <v>304</v>
+      </c>
+      <c r="D209" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B210" t="s">
+        <v>286</v>
+      </c>
+      <c r="C210" t="s">
+        <v>296</v>
+      </c>
+      <c r="D210" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B211" t="s">
+        <v>287</v>
+      </c>
+      <c r="C211" t="s">
+        <v>291</v>
+      </c>
+      <c r="D211" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B212" t="s">
+        <v>287</v>
+      </c>
+      <c r="C212" t="s">
+        <v>301</v>
+      </c>
+      <c r="D212" t="s">
+        <v>320</v>
+      </c>
+      <c r="E212">
+        <v>5</v>
+      </c>
+      <c r="F212" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B213" t="s">
+        <v>287</v>
+      </c>
+      <c r="C213" t="s">
+        <v>296</v>
+      </c>
+      <c r="D213" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B214" t="s">
+        <v>286</v>
+      </c>
+      <c r="C214" t="s">
+        <v>310</v>
+      </c>
+      <c r="D214" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B215" t="s">
+        <v>287</v>
+      </c>
+      <c r="C215" t="s">
+        <v>289</v>
+      </c>
+      <c r="D215" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B216" t="s">
+        <v>287</v>
+      </c>
+      <c r="D216" t="s">
+        <v>320</v>
+      </c>
+      <c r="E216">
+        <v>4.5</v>
+      </c>
+      <c r="F216" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B217" t="s">
+        <v>286</v>
+      </c>
+      <c r="C217" t="s">
+        <v>289</v>
+      </c>
+      <c r="D217" t="s">
+        <v>320</v>
+      </c>
+      <c r="E217">
+        <v>5</v>
+      </c>
+      <c r="F217" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B218" t="s">
+        <v>287</v>
+      </c>
+      <c r="C218" t="s">
+        <v>316</v>
+      </c>
+      <c r="D218" t="s">
+        <v>329</v>
+      </c>
+      <c r="E218">
+        <v>4.5</v>
+      </c>
+      <c r="F218" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B219" t="s">
+        <v>287</v>
+      </c>
+      <c r="C219" t="s">
+        <v>301</v>
+      </c>
+      <c r="D219" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B220" t="s">
+        <v>287</v>
+      </c>
+      <c r="C220" t="s">
+        <v>302</v>
+      </c>
+      <c r="D220" t="s">
+        <v>343</v>
+      </c>
+      <c r="E220">
+        <v>5</v>
+      </c>
+      <c r="F220" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B221" t="s">
+        <v>287</v>
+      </c>
+      <c r="C221" t="s">
+        <v>301</v>
+      </c>
+      <c r="D221" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B222" t="s">
+        <v>287</v>
+      </c>
+      <c r="D222" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B223" t="s">
+        <v>287</v>
+      </c>
+      <c r="C223" t="s">
+        <v>288</v>
+      </c>
+      <c r="D223" t="s">
+        <v>319</v>
+      </c>
+      <c r="E223">
+        <v>5</v>
+      </c>
+      <c r="F223" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B224" t="s">
+        <v>286</v>
+      </c>
+      <c r="C224" t="s">
+        <v>289</v>
+      </c>
+      <c r="D224" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B225" t="s">
+        <v>286</v>
+      </c>
+      <c r="C225" t="s">
+        <v>293</v>
+      </c>
+      <c r="D225" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B226" t="s">
+        <v>286</v>
+      </c>
+      <c r="C226" t="s">
+        <v>296</v>
+      </c>
+      <c r="D226" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B227" t="s">
+        <v>287</v>
+      </c>
+      <c r="C227" t="s">
+        <v>292</v>
+      </c>
+      <c r="D227" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B228" t="s">
+        <v>287</v>
+      </c>
+      <c r="D228" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B229" t="s">
+        <v>287</v>
+      </c>
+      <c r="D229" t="s">
+        <v>319</v>
+      </c>
+      <c r="E229">
+        <v>5</v>
+      </c>
+      <c r="F229" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B230" t="s">
+        <v>286</v>
+      </c>
+      <c r="C230" t="s">
+        <v>288</v>
+      </c>
+      <c r="D230" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B231" t="s">
+        <v>287</v>
+      </c>
+      <c r="D231" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1" t="s">
         <v>236</v>
+      </c>
+      <c r="B232" t="s">
+        <v>287</v>
+      </c>
+      <c r="C232" t="s">
+        <v>301</v>
+      </c>
+      <c r="D232" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B233" t="s">
+        <v>287</v>
+      </c>
+      <c r="D233" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B234" t="s">
+        <v>286</v>
+      </c>
+      <c r="C234" t="s">
+        <v>290</v>
+      </c>
+      <c r="D234" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B235" t="s">
+        <v>287</v>
+      </c>
+      <c r="D235" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B236" t="s">
+        <v>286</v>
+      </c>
+      <c r="C236" t="s">
+        <v>317</v>
+      </c>
+      <c r="D236" t="s">
+        <v>343</v>
+      </c>
+      <c r="E236">
+        <v>4.5</v>
+      </c>
+      <c r="F236" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B237" t="s">
+        <v>287</v>
+      </c>
+      <c r="D237" t="s">
+        <v>336</v>
+      </c>
+      <c r="E237">
+        <v>5</v>
+      </c>
+      <c r="F237" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B238" t="s">
+        <v>287</v>
+      </c>
+      <c r="C238" t="s">
+        <v>291</v>
+      </c>
+      <c r="D238" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B239" t="s">
+        <v>287</v>
+      </c>
+      <c r="D239" t="s">
+        <v>320</v>
+      </c>
+      <c r="E239">
+        <v>3.5</v>
+      </c>
+      <c r="F239" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B240" t="s">
+        <v>287</v>
+      </c>
+      <c r="D240" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B241" t="s">
+        <v>286</v>
+      </c>
+      <c r="C241" t="s">
+        <v>302</v>
+      </c>
+      <c r="D241" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B242" t="s">
+        <v>286</v>
+      </c>
+      <c r="C242" t="s">
+        <v>289</v>
+      </c>
+      <c r="D242" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B243" t="s">
+        <v>286</v>
+      </c>
+      <c r="C243" t="s">
+        <v>302</v>
+      </c>
+      <c r="D243" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B244" t="s">
+        <v>286</v>
+      </c>
+      <c r="C244" t="s">
+        <v>288</v>
+      </c>
+      <c r="D244" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B245" t="s">
+        <v>286</v>
+      </c>
+      <c r="C245" t="s">
+        <v>293</v>
+      </c>
+      <c r="D245" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B246" t="s">
+        <v>286</v>
+      </c>
+      <c r="D246" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B247" t="s">
+        <v>287</v>
+      </c>
+      <c r="D247" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B248" t="s">
+        <v>287</v>
+      </c>
+      <c r="D248" t="s">
+        <v>319</v>
+      </c>
+      <c r="E248">
+        <v>5</v>
+      </c>
+      <c r="F248" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B249" t="s">
+        <v>287</v>
+      </c>
+      <c r="C249" t="s">
+        <v>302</v>
+      </c>
+      <c r="D249" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B250" t="s">
+        <v>287</v>
+      </c>
+      <c r="D250" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B251" t="s">
+        <v>287</v>
+      </c>
+      <c r="C251" t="s">
+        <v>318</v>
+      </c>
+      <c r="D251" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B252" t="s">
+        <v>287</v>
+      </c>
+      <c r="C252" t="s">
+        <v>292</v>
+      </c>
+      <c r="D252" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B253" t="s">
+        <v>286</v>
+      </c>
+      <c r="C253" t="s">
+        <v>294</v>
+      </c>
+      <c r="D253" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B254" t="s">
+        <v>286</v>
+      </c>
+      <c r="C254" t="s">
+        <v>292</v>
+      </c>
+      <c r="D254" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B255" t="s">
+        <v>286</v>
+      </c>
+      <c r="C255" t="s">
+        <v>288</v>
+      </c>
+      <c r="D255" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B256" t="s">
+        <v>287</v>
+      </c>
+      <c r="C256" t="s">
+        <v>295</v>
+      </c>
+      <c r="D256" t="s">
+        <v>320</v>
+      </c>
+      <c r="E256">
+        <v>5</v>
+      </c>
+      <c r="F256" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B257" t="s">
+        <v>287</v>
+      </c>
+      <c r="C257" t="s">
+        <v>315</v>
+      </c>
+      <c r="D257" t="s">
+        <v>366</v>
+      </c>
+      <c r="E257">
+        <v>5</v>
+      </c>
+      <c r="F257" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B258" t="s">
+        <v>287</v>
+      </c>
+      <c r="C258" t="s">
+        <v>292</v>
+      </c>
+      <c r="D258" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B259" t="s">
+        <v>287</v>
+      </c>
+      <c r="D259" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B260" t="s">
+        <v>287</v>
+      </c>
+      <c r="C260" t="s">
+        <v>293</v>
+      </c>
+      <c r="D260" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B261" t="s">
+        <v>287</v>
+      </c>
+      <c r="C261" t="s">
+        <v>301</v>
+      </c>
+      <c r="D261" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B262" t="s">
+        <v>287</v>
+      </c>
+      <c r="D262" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B263" t="s">
+        <v>287</v>
+      </c>
+      <c r="C263" t="s">
+        <v>301</v>
+      </c>
+      <c r="D263" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B264" t="s">
+        <v>287</v>
+      </c>
+      <c r="D264" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B265" t="s">
+        <v>287</v>
+      </c>
+      <c r="C265" t="s">
+        <v>302</v>
+      </c>
+      <c r="D265" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B266" t="s">
+        <v>286</v>
+      </c>
+      <c r="D266" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B267" t="s">
+        <v>287</v>
+      </c>
+      <c r="C267" t="s">
+        <v>288</v>
+      </c>
+      <c r="D267" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B268" t="s">
+        <v>286</v>
+      </c>
+      <c r="C268" t="s">
+        <v>304</v>
+      </c>
+      <c r="D268" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B269" t="s">
+        <v>286</v>
+      </c>
+      <c r="D269" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B270" t="s">
+        <v>286</v>
+      </c>
+      <c r="C270" t="s">
+        <v>301</v>
+      </c>
+      <c r="D270" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B271" t="s">
+        <v>287</v>
+      </c>
+      <c r="C271" t="s">
+        <v>294</v>
+      </c>
+      <c r="D271" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B272" t="s">
+        <v>286</v>
+      </c>
+      <c r="C272" t="s">
+        <v>316</v>
+      </c>
+      <c r="D272" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B273" t="s">
+        <v>287</v>
+      </c>
+      <c r="C273" t="s">
+        <v>302</v>
+      </c>
+      <c r="D273" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B274" t="s">
+        <v>286</v>
+      </c>
+      <c r="C274" t="s">
+        <v>301</v>
+      </c>
+      <c r="D274" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B275" t="s">
+        <v>287</v>
+      </c>
+      <c r="C275" t="s">
+        <v>296</v>
+      </c>
+      <c r="D275" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B276" t="s">
+        <v>287</v>
+      </c>
+      <c r="C276" t="s">
+        <v>296</v>
+      </c>
+      <c r="D276" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B277" t="s">
+        <v>286</v>
+      </c>
+      <c r="C277" t="s">
+        <v>304</v>
+      </c>
+      <c r="D277" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B278" t="s">
+        <v>287</v>
+      </c>
+      <c r="D278" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B279" t="s">
+        <v>287</v>
+      </c>
+      <c r="C279" t="s">
+        <v>293</v>
+      </c>
+      <c r="D279" t="s">
+        <v>367</v>
+      </c>
+      <c r="E279">
+        <v>4.5</v>
+      </c>
+      <c r="F279" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B280" t="s">
+        <v>286</v>
+      </c>
+      <c r="C280" t="s">
+        <v>301</v>
+      </c>
+      <c r="D280" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B281" t="s">
+        <v>286</v>
+      </c>
+      <c r="C281" t="s">
+        <v>295</v>
+      </c>
+      <c r="D281" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
